--- a/Userstory.xlsx
+++ b/Userstory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>registration seite erstellen</t>
   </si>
@@ -42,33 +42,12 @@
     <t>username (die Email) und das gehashte password werden in der Datenbank gespeichert</t>
   </si>
   <si>
-    <t>Phasen der Entwicklung</t>
-  </si>
-  <si>
-    <t>Phase 1</t>
-  </si>
-  <si>
     <t>eine Seite auf der ein kalender angezeigt wird</t>
   </si>
   <si>
-    <t>eine Seite in der die Schulaufgabe eingetragen werden kann</t>
-  </si>
-  <si>
     <t>der "Kaltender" sperrt wochen die zu den Ferien gehört</t>
   </si>
   <si>
-    <t>Datum, anz std, welche std, schulaufgaben und kurzarbeiten können farblich unterschieden werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>optional können auch weitere wichtige Termine eingetragen werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (wandertage = sind ausgegraut, an feiertagen kann keine Schulaufgabe eingetragen werden)</t>
-  </si>
-  <si>
     <t>Aufgaben</t>
   </si>
   <si>
@@ -78,12 +57,6 @@
     <t>Informationen wie Webseiten, wie ich Vorgegangen bin und was die Gedanken dahinter waren</t>
   </si>
   <si>
-    <t>muss IMMER gemacht werden</t>
-  </si>
-  <si>
-    <t>Phase 2</t>
-  </si>
-  <si>
     <t>Was genau brauche ich alles? (Wissen, Tools, …)</t>
   </si>
   <si>
@@ -105,9 +78,6 @@
     <t xml:space="preserve"> -&gt; die der Person zugeteilten Std sind die einzigen in die diese Einfügen darf</t>
   </si>
   <si>
-    <t>geplante Zeit für Prototyp</t>
-  </si>
-  <si>
     <t>bis Weihnachten</t>
   </si>
   <si>
@@ -118,6 +88,57 @@
   </si>
   <si>
     <t>haben keine weiteren rechte</t>
+  </si>
+  <si>
+    <t>erstellen von Oberfläche wo Lehrer Klassenarbeiten eintragen können</t>
+  </si>
+  <si>
+    <t>erstellen von Oberfläche wo schüler sich eingetragene Klassenarbeiten anschauen können</t>
+  </si>
+  <si>
+    <t>Lehrer können nur bei Ihren Stunden Klassenarbeiten eintragen</t>
+  </si>
+  <si>
+    <t>Es muss auswählbar sein ob es eine Schulaufgabe ist oder eine Kurzarbeit</t>
+  </si>
+  <si>
+    <t>Notiz soll hizufügbar sein die beim darüber fahren angezeigt werden</t>
+  </si>
+  <si>
+    <t>bei Fächern die von mehreren Lehrern unterrichtet werden soll anhand von Namen unterschieden werden</t>
+  </si>
+  <si>
+    <t>Schulaufgaben und Klassenarbeiten werden unterschiedlich gefärbt angezeigt</t>
+  </si>
+  <si>
+    <t>Fächer müssen im Stundenplan festgelegt sein!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (an wandertagen und feiertagen kann keine Schulaufgabe eingetragen werden)</t>
+  </si>
+  <si>
+    <t>zuteilung von zugriffsrechten</t>
+  </si>
+  <si>
+    <t>unterscheidung zwischen Schuelern und Lehrern</t>
+  </si>
+  <si>
+    <t>verifikation per email</t>
+  </si>
+  <si>
+    <t>email muss verifiziert werden per email senden an email</t>
+  </si>
+  <si>
+    <t>bis zu den Ferien im Februar</t>
+  </si>
+  <si>
+    <t>geplante Zeit</t>
+  </si>
+  <si>
+    <t>immer</t>
+  </si>
+  <si>
+    <t>Wie setzte ich die verschiedenen funktionen um?</t>
   </si>
 </sst>
 </file>
@@ -140,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,18 +182,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -183,8 +192,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -208,19 +235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -230,7 +244,33 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -242,52 +282,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -298,48 +292,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="4">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
     <cellStyle name="20 % - Akzent2" xfId="2" builtinId="34"/>
-    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="20 % - Akzent4" xfId="4" builtinId="42"/>
-    <cellStyle name="20 % - Akzent5" xfId="5" builtinId="46"/>
+    <cellStyle name="20 % - Akzent5" xfId="3" builtinId="46"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,189 +609,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="C12:C19"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Userstory.xlsx
+++ b/Userstory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>registration seite erstellen</t>
   </si>
@@ -27,18 +27,12 @@
     <t>login seite erstellen</t>
   </si>
   <si>
-    <t>eine Email senden und dann erst das einloggen zulassen</t>
-  </si>
-  <si>
     <t>verbindung zur datenbank erstellen</t>
   </si>
   <si>
     <t>Anforderungen</t>
   </si>
   <si>
-    <t>die emailadresse muss gewissen kriterien entsprechen</t>
-  </si>
-  <si>
     <t>username (die Email) und das gehashte password werden in der Datenbank gespeichert</t>
   </si>
   <si>
@@ -139,6 +133,45 @@
   </si>
   <si>
     <t>Wie setzte ich die verschiedenen funktionen um?</t>
+  </si>
+  <si>
+    <t>Aufgaben erledigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - eine Email senden und dann erst das einloggen zulassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - die emailadresse muss gewissen kriterien entsprechen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - über sessions werden valide Passwörter wieder in Feldern angezeigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - über sessions wird der Benutzername gespeichert und erneut ausgegeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  das Password muss geprüft werden auf gültigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - gehashte Passwörter werden aus DB gelesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - gehashte Passwörter werden verglichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - option zum ändern des Passwortes vergeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - password hashen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auslagern von code in andere Dateinen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">muss den Code übersichtlicher machen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - oberfläche erstellen</t>
   </si>
 </sst>
 </file>
@@ -161,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +240,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +343,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -318,14 +363,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -609,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,211 +673,308 @@
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="22"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C15:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Userstory.xlsx
+++ b/Userstory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>registration seite erstellen</t>
   </si>
@@ -123,9 +123,6 @@
     <t>email muss verifiziert werden per email senden an email</t>
   </si>
   <si>
-    <t>bis zu den Ferien im Februar</t>
-  </si>
-  <si>
     <t>geplante Zeit</t>
   </si>
   <si>
@@ -172,6 +169,27 @@
   </si>
   <si>
     <t xml:space="preserve"> - oberfläche erstellen</t>
+  </si>
+  <si>
+    <t>email schicken um account zu aktivieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - unbestätigt Status (speichern der Daten sofort, aber aktiviert Account erst wenn email bestätigt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - tokken generieren um email zu verifizieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - eine Email versenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - gültigkeit des Tokkens muss vergehen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - wenn sich jemand ein zweites mal mit der selben email registrieren möchte dann wird ihm eine Fehlermeldung gegeben ( keine Weiterleitung)</t>
+  </si>
+  <si>
+    <t>bis Fasching</t>
   </si>
 </sst>
 </file>
@@ -256,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -336,6 +354,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -343,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -365,17 +396,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
@@ -659,16 +695,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -681,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,289 +728,339 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
+      <c r="C21" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="22"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B33" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C36" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C15:C19"/>
+  <mergeCells count="4">
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C11:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Userstory.xlsx
+++ b/Userstory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>registration seite erstellen</t>
   </si>
@@ -27,21 +27,9 @@
     <t>login seite erstellen</t>
   </si>
   <si>
-    <t>verbindung zur datenbank erstellen</t>
-  </si>
-  <si>
     <t>Anforderungen</t>
   </si>
   <si>
-    <t>username (die Email) und das gehashte password werden in der Datenbank gespeichert</t>
-  </si>
-  <si>
-    <t>eine Seite auf der ein kalender angezeigt wird</t>
-  </si>
-  <si>
-    <t>der "Kaltender" sperrt wochen die zu den Ferien gehört</t>
-  </si>
-  <si>
     <t>Aufgaben</t>
   </si>
   <si>
@@ -72,12 +60,6 @@
     <t xml:space="preserve"> -&gt; die der Person zugeteilten Std sind die einzigen in die diese Einfügen darf</t>
   </si>
   <si>
-    <t>bis Weihnachten</t>
-  </si>
-  <si>
-    <t>bis zu den Osterferien</t>
-  </si>
-  <si>
     <t>eingeloggte Schüler können sich die Klassenarbeiten anschauen</t>
   </si>
   <si>
@@ -108,9 +90,6 @@
     <t>Fächer müssen im Stundenplan festgelegt sein!</t>
   </si>
   <si>
-    <t xml:space="preserve"> (an wandertagen und feiertagen kann keine Schulaufgabe eingetragen werden)</t>
-  </si>
-  <si>
     <t>zuteilung von zugriffsrechten</t>
   </si>
   <si>
@@ -123,12 +102,6 @@
     <t>email muss verifiziert werden per email senden an email</t>
   </si>
   <si>
-    <t>geplante Zeit</t>
-  </si>
-  <si>
-    <t>immer</t>
-  </si>
-  <si>
     <t>Wie setzte ich die verschiedenen funktionen um?</t>
   </si>
   <si>
@@ -138,9 +111,6 @@
     <t xml:space="preserve"> - eine Email senden und dann erst das einloggen zulassen</t>
   </si>
   <si>
-    <t xml:space="preserve"> - die emailadresse muss gewissen kriterien entsprechen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - über sessions werden valide Passwörter wieder in Feldern angezeigt</t>
   </si>
   <si>
@@ -153,9 +123,6 @@
     <t xml:space="preserve"> - gehashte Passwörter werden aus DB gelesen</t>
   </si>
   <si>
-    <t xml:space="preserve"> - gehashte Passwörter werden verglichen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - option zum ändern des Passwortes vergeben</t>
   </si>
   <si>
@@ -165,15 +132,9 @@
     <t xml:space="preserve">auslagern von code in andere Dateinen </t>
   </si>
   <si>
-    <t xml:space="preserve">muss den Code übersichtlicher machen </t>
-  </si>
-  <si>
     <t xml:space="preserve"> - oberfläche erstellen</t>
   </si>
   <si>
-    <t>email schicken um account zu aktivieren</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - unbestätigt Status (speichern der Daten sofort, aber aktiviert Account erst wenn email bestätigt)</t>
   </si>
   <si>
@@ -186,10 +147,97 @@
     <t xml:space="preserve"> - gültigkeit des Tokkens muss vergehen!</t>
   </si>
   <si>
-    <t xml:space="preserve"> - wenn sich jemand ein zweites mal mit der selben email registrieren möchte dann wird ihm eine Fehlermeldung gegeben ( keine Weiterleitung)</t>
-  </si>
-  <si>
-    <t>bis Fasching</t>
+    <t xml:space="preserve"> - gehashtes passwort wird mit gehashtem Passwort aus DB verglichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - muss den Code übersichtlicher machen </t>
+  </si>
+  <si>
+    <t>Db verbindung herstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - CRUD operationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - tabellen erstellen und Fremdschlüsselbeziehungen berichtigen</t>
+  </si>
+  <si>
+    <t>Kommentare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - es darf keine zweite Registrieung möglich sein!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - benutzername, nicht das Passwort!, entweder per header oder session übergeben und ins Input feld schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - email addresse muss gewisse Anforderungen erfüllen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fehlermeldung wenn Benutzername bereits vorhanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Tokken darf nicht gültig sein wenn der link angeklickt wurde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - der Status des Benutzerkonto darf keine Rechte haben bis er die Emial bestätigt hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rollenvergabe bei aus lesen der Rolle aus DB (entweder durch extra Spalte oder extra Tabellen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - eingegebenes Passwort wird erneut gehasht</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - user wird nicht weiter geleitet wenn das Passwort nicht stimmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - sessions welche den Username speichert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - wenn benutzer stimmt wird der Benutzername in session gespeichert, das Passwort nicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - das Passwort braucht eine gewisse länge, großbuchstaben, Sonderzeichen optional und zahlen</t>
+  </si>
+  <si>
+    <t>passwort hashen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Passwort wird gehasht und dann gespeichert</t>
+  </si>
+  <si>
+    <t>emial verifikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passwort überprüfen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - oberfläche im Stundenplan Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Schulaufgabentermine in Sessions speichern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - wie soll ich die eingetragenen Schulaufgaben/Kurzarbeiten ausgeben?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - gespeicherte Schulaufgaben und Kurzarbeiten in Sessions speichern und in Dokument speichern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - soll ich java script nutzen um das Datum und die Stunden und die Schulaufgaben dynamisch auf der Oberfläche auszugeben?</t>
+  </si>
+  <si>
+    <t>Oberflächer zum eintragen von Klassenarbeiten</t>
+  </si>
+  <si>
+    <t>eingetragene Klassenarbeiten erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lehrer können nur in ihren Stunden Klassenarbeiten eintragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - eingetragene Schulaufgaben und Kurzarbeiten werden in unterschiedlichen Farben angezeigt</t>
   </si>
 </sst>
 </file>
@@ -212,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,24 +303,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -355,15 +385,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -374,13 +400,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
@@ -393,24 +418,33 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -695,373 +729,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>7</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C11:C19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
